--- a/03_Optimus/03_Documents Projet/Calendrier_EPSA.xlsx
+++ b/03_Optimus/03_Documents Projet/Calendrier_EPSA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas\Documents\Intergen\03_Optimus\03_Documents Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gameiro Nicolas\Documents\EPSA\Intergen\03_Optimus\03_Documents Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{583D370A-579B-45D0-9900-571B4DF07645}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" tabRatio="788"/>
   </bookViews>
   <sheets>
     <sheet name="Calendrier" sheetId="14" r:id="rId1"/>
@@ -60,7 +59,7 @@
     <definedName name="ValeurDébutsemaine">IF(DébutSemaine="LUNDI",2,1)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Calendrier!$A$1:$H$168</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>LUNDI</t>
   </si>
@@ -90,9 +89,6 @@
     <t>Tous</t>
   </si>
   <si>
-    <t>RVP1</t>
-  </si>
-  <si>
     <t>Vacances</t>
   </si>
   <si>
@@ -107,16 +103,154 @@
   <si>
     <t>Partiel 2A</t>
   </si>
+  <si>
+    <t>EPSALTEN</t>
+  </si>
+  <si>
+    <t>Réunion de préparation Roll Out</t>
+  </si>
+  <si>
+    <t>ROLL OUT OPTIMUS</t>
+  </si>
+  <si>
+    <t>Formation EPSAC pneumatique de L.Bauvir (18h15-20h)</t>
+  </si>
+  <si>
+    <t>CLIC 1As</t>
+  </si>
+  <si>
+    <t>Soirée remerciement sponsors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visite Boisard, La Mache &amp; Bron </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Formation sécurité de C.Janolin (16h-18h) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>RVP1 (14h-16h)</t>
+    </r>
+  </si>
+  <si>
+    <t>Partiel 1A</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Partiel 1A        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Préparation aux quizz</t>
+    </r>
+  </si>
+  <si>
+    <t>Démontage de Vulcanix [BRT &amp; BDE]</t>
+  </si>
+  <si>
+    <t>Déposer Chassis Bery Inox [ABR]</t>
+  </si>
+  <si>
+    <t>TOP Organe (à Boisard)</t>
+  </si>
+  <si>
+    <t>Formation Laurent Dynamique Véhicule (Part 3)</t>
+  </si>
+  <si>
+    <t>Vacs Boisard &amp; La mache</t>
+  </si>
+  <si>
+    <t>Vacs La Gir</t>
+  </si>
+  <si>
+    <t>Définition des objectifs du roll out et réalisation du gantt</t>
+  </si>
+  <si>
+    <t>TOP Moteur</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Partiel 2A / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Partiel 1A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Partiel 1A / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">Présentation Expo Bibli / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Visite La Mache et Boisard</t>
+    </r>
+  </si>
+  <si>
+    <t>Démontage moto session 1</t>
+  </si>
+  <si>
+    <t>Formation EPSAC Dynamic Vehicle 1 de L.Bauvir (18h15-20h)</t>
+  </si>
+  <si>
+    <t>Formation EPSAC Dynamic Vehicle 2 de L.Bauvir (18h15-20h)</t>
+  </si>
+  <si>
+    <t>Formation EPSAC Dynamic Vehicle 3 de L.Bauvir (18h15-20h)</t>
+  </si>
+  <si>
+    <t>Séance Roulage Vulcanix &amp; Rangement Bron</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="dd"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Trebuchet MS"/>
@@ -273,8 +407,22 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +472,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,7 +640,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="9">
       <alignment horizontal="center"/>
@@ -515,29 +675,11 @@
     <xf numFmtId="15" fontId="9" fillId="7" borderId="3" xfId="10" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="8" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="8">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -551,16 +693,74 @@
     <xf numFmtId="164" fontId="8" fillId="9" borderId="9" xfId="5" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="9" xfId="5" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="4" xfId="5" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="9" xfId="5" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="8" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="8">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="40 % - Accent1" xfId="1" builtinId="31" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="3" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="4" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Détail jour" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="En-tête de notes" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Jour" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Détail jour" xfId="6"/>
+    <cellStyle name="En-tête de notes" xfId="8"/>
+    <cellStyle name="Jour" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Notes" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Notes" xfId="7"/>
     <cellStyle name="Titre" xfId="9" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Titre 2" xfId="10" builtinId="17" customBuiltin="1"/>
@@ -935,25 +1135,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor theme="4" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.58203125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="24.625" customWidth="1"/>
+    <col min="1" max="7" width="24.58203125" customWidth="1"/>
     <col min="8" max="8" width="2.5" customWidth="1"/>
     <col min="13" max="13" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A1" s="1">
         <f ca="1">YEAR(TODAY())</f>
         <v>2019</v>
@@ -967,7 +1167,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -996,7 +1196,7 @@
         <v>DIMANCHE</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <f t="array" aca="1" ref="A3:G3" ca="1">Jours+1+DATE(Calendrier1an,OptionCalendrier1mois,1)-WEEKDAY(DATE(Calendrier1an,OptionCalendrier1mois,1),OptionJoursemaine)</f>
         <v>43465</v>
@@ -1025,25 +1225,25 @@
         <f ca="1"/>
         <v>43471</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="I4" s="20" t="s">
+    <row r="4" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="I4" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <f t="array" aca="1" ref="A5:G5" ca="1">Jours+8+DATE(Calendrier1an,OptionCalendrier1mois,1)-WEEKDAY(DATE(Calendrier1an,OptionCalendrier1mois,1),OptionJoursemaine)</f>
         <v>43472</v>
@@ -1072,24 +1272,30 @@
         <f ca="1"/>
         <v>43478</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+    <row r="6" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="24" t="s">
-        <v>8</v>
+      <c r="F6" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <f t="array" aca="1" ref="A7:G7" ca="1">Jours+15+DATE(Calendrier1an,OptionCalendrier1mois,1)-WEEKDAY(DATE(Calendrier1an,OptionCalendrier1mois,1),OptionJoursemaine)</f>
         <v>43479</v>
@@ -1119,36 +1325,40 @@
         <v>43485</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="22" t="s">
-        <v>6</v>
+      <c r="B8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="F8" s="18" t="s">
+        <v>21</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21">
         <f t="array" aca="1" ref="A9:G9" ca="1">Jours+22+DATE(Calendrier1an,OptionCalendrier1mois,1)-WEEKDAY(DATE(Calendrier1an,OptionCalendrier1mois,1),OptionJoursemaine)</f>
         <v>43486</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="21">
         <f ca="1"/>
         <v>43487</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="27">
         <f ca="1"/>
         <v>43488</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="27">
         <f ca="1"/>
         <v>43489</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="27">
         <f ca="1"/>
         <v>43490</v>
       </c>
@@ -1161,29 +1371,39 @@
         <v>43492</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+    <row r="10" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="21">
         <f t="array" aca="1" ref="A11:G11" ca="1">Jours+29+DATE(Calendrier1an,OptionCalendrier1mois,1)-WEEKDAY(DATE(Calendrier1an,OptionCalendrier1mois,1),OptionJoursemaine)</f>
         <v>43493</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="21">
         <f ca="1"/>
         <v>43494</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="3">
         <f ca="1"/>
         <v>43495</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="3">
         <f ca="1"/>
         <v>43496</v>
       </c>
@@ -1200,24 +1420,24 @@
         <v>43499</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="26" t="s">
+    <row r="12" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="19" t="s">
         <v>10</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20" t="s">
+        <v>9</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <f t="array" aca="1" ref="A13:B13" ca="1">Jours+36+DATE(Calendrier1an,OptionCalendrier1mois,1)-WEEKDAY(DATE(Calendrier1an,OptionCalendrier1mois,1),OptionJoursemaine)</f>
         <v>43500</v>
@@ -1226,24 +1446,26 @@
         <f ca="1"/>
         <v>43501</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A15" s="1">
         <f ca="1">YEAR(DATE(Calendrier1an,OptionCalendrier1mois+1,1))</f>
         <v>2019</v>
@@ -1258,7 +1480,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="str">
         <f t="shared" ref="A16:G16" ca="1" si="1">UPPER(TEXT(A17,"jjjj"))</f>
         <v>LUNDI</v>
@@ -1288,7 +1510,7 @@
         <v>DIMANCHE</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <f t="array" aca="1" ref="A17:G17" ca="1">Jours+1+DATE(Calendrier2ans,OptionCalendrier2mois,1)-WEEKDAY(DATE(Calendrier2ans,OptionCalendrier2mois,1),OptionJoursemaine)</f>
         <v>43493</v>
@@ -1318,7 +1540,7 @@
         <v>43499</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1327,7 +1549,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <f t="array" aca="1" ref="A19:G19" ca="1">Jours+8+DATE(Calendrier2ans,OptionCalendrier2mois,1)-WEEKDAY(DATE(Calendrier2ans,OptionCalendrier2mois,1),OptionJoursemaine)</f>
         <v>43500</v>
@@ -1357,16 +1579,26 @@
         <v>43506</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+    <row r="20" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="F20" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <f t="array" aca="1" ref="A21:G21" ca="1">Jours+15+DATE(Calendrier2ans,OptionCalendrier2mois,1)-WEEKDAY(DATE(Calendrier2ans,OptionCalendrier2mois,1),OptionJoursemaine)</f>
         <v>43507</v>
@@ -1387,64 +1619,78 @@
         <f ca="1"/>
         <v>43511</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="22">
         <f ca="1"/>
         <v>43512</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="23">
         <f ca="1"/>
         <v>43513</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="F22" s="30"/>
+      <c r="G22" s="32"/>
+      <c r="I22" s="33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="22">
         <f t="array" aca="1" ref="A23:G23" ca="1">Jours+22+DATE(Calendrier2ans,OptionCalendrier2mois,1)-WEEKDAY(DATE(Calendrier2ans,OptionCalendrier2mois,1),OptionJoursemaine)</f>
         <v>43514</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="22">
         <f ca="1"/>
         <v>43515</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="22">
         <f ca="1"/>
         <v>43516</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="22">
         <f ca="1"/>
         <v>43517</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="22">
         <f ca="1"/>
         <v>43518</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="22">
         <f ca="1"/>
         <v>43519</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="23">
         <f ca="1"/>
         <v>43520</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="I24" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <f t="array" aca="1" ref="A25:G25" ca="1">Jours+29+DATE(Calendrier2ans,OptionCalendrier2mois,1)-WEEKDAY(DATE(Calendrier2ans,OptionCalendrier2mois,1),OptionJoursemaine)</f>
         <v>43521</v>
@@ -1474,7 +1720,7 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1483,7 +1729,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <f t="array" aca="1" ref="A27:B27" ca="1">Jours+36+DATE(Calendrier2ans,OptionCalendrier2mois,1)-WEEKDAY(DATE(Calendrier2ans,OptionCalendrier2mois,1),OptionJoursemaine)</f>
         <v>43528</v>
@@ -1492,24 +1738,24 @@
         <f ca="1"/>
         <v>43529</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+    </row>
+    <row r="28" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+    </row>
+    <row r="29" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A29" s="1">
         <f ca="1">YEAR(DATE(Calendrier2ans,OptionCalendrier2mois+1,1))</f>
         <v>2019</v>
@@ -1524,7 +1770,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="str">
         <f t="shared" ref="A30:G30" ca="1" si="2">UPPER(TEXT(A31,"jjjj"))</f>
         <v>LUNDI</v>
@@ -1554,7 +1800,7 @@
         <v>DIMANCHE</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <f t="array" aca="1" ref="A31:G31" ca="1">Jours+1+DATE(Calendrier3ans,OptionCalendrier3mois,1)-WEEKDAY(DATE(Calendrier3ans,OptionCalendrier3mois,1),OptionJoursemaine)</f>
         <v>43521</v>
@@ -1584,7 +1830,7 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1593,7 +1839,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <f t="array" aca="1" ref="A33:G33" ca="1">Jours+8+DATE(Calendrier3ans,OptionCalendrier3mois,1)-WEEKDAY(DATE(Calendrier3ans,OptionCalendrier3mois,1),OptionJoursemaine)</f>
         <v>43528</v>
@@ -1623,16 +1869,16 @@
         <v>43534</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <f t="array" aca="1" ref="A35:G35" ca="1">Jours+15+DATE(Calendrier3ans,OptionCalendrier3mois,1)-WEEKDAY(DATE(Calendrier3ans,OptionCalendrier3mois,1),OptionJoursemaine)</f>
         <v>43535</v>
@@ -1653,25 +1899,27 @@
         <f ca="1"/>
         <v>43539</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="26">
         <f ca="1"/>
         <v>43540</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="28">
         <f ca="1"/>
         <v>43541</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <f t="array" aca="1" ref="A37:G37" ca="1">Jours+22+DATE(Calendrier3ans,OptionCalendrier3mois,1)-WEEKDAY(DATE(Calendrier3ans,OptionCalendrier3mois,1),OptionJoursemaine)</f>
         <v>43542</v>
@@ -1701,16 +1949,16 @@
         <v>43548</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <f t="array" aca="1" ref="A39:G39" ca="1">Jours+29+DATE(Calendrier3ans,OptionCalendrier3mois,1)-WEEKDAY(DATE(Calendrier3ans,OptionCalendrier3mois,1),OptionJoursemaine)</f>
         <v>43549</v>
@@ -1740,7 +1988,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -1749,7 +1997,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <f t="array" aca="1" ref="A41:B41" ca="1">Jours+36+DATE(Calendrier3ans,OptionCalendrier3mois,1)-WEEKDAY(DATE(Calendrier3ans,OptionCalendrier3mois,1),OptionJoursemaine)</f>
         <v>43556</v>
@@ -1758,24 +2006,24 @@
         <f ca="1"/>
         <v>43557</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-    </row>
-    <row r="42" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+    </row>
+    <row r="42" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-    </row>
-    <row r="43" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+    </row>
+    <row r="43" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A43" s="1">
         <f ca="1">YEAR(DATE(Calendrier3ans,OptionCalendrier3mois +1,1))</f>
         <v>2019</v>
@@ -1790,7 +2038,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="str">
         <f t="shared" ref="A44:G44" ca="1" si="3">UPPER(TEXT(A45,"jjjj"))</f>
         <v>LUNDI</v>
@@ -1820,7 +2068,7 @@
         <v>DIMANCHE</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <f t="array" aca="1" ref="A45:G45" ca="1">Jours+1+DATE(Calendrier4ans,OptionCalendrier4mois,1)-WEEKDAY(DATE(Calendrier4ans,OptionCalendrier4mois,1),OptionJoursemaine)</f>
         <v>43556</v>
@@ -1850,16 +2098,18 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G46" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <f t="array" aca="1" ref="A47:G47" ca="1">Jours+8+DATE(Calendrier4ans,OptionCalendrier4mois,1)-WEEKDAY(DATE(Calendrier4ans,OptionCalendrier4mois,1),OptionJoursemaine)</f>
         <v>43563</v>
@@ -1880,16 +2130,16 @@
         <f ca="1"/>
         <v>43567</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="22">
         <f ca="1"/>
         <v>43568</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="23">
         <f ca="1"/>
         <v>43569</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -1898,37 +2148,37 @@
       <c r="F48" s="9"/>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+    <row r="49" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="22">
         <f t="array" aca="1" ref="A49:G49" ca="1">Jours+15+DATE(Calendrier4ans,OptionCalendrier4mois,1)-WEEKDAY(DATE(Calendrier4ans,OptionCalendrier4mois,1),OptionJoursemaine)</f>
         <v>43570</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="22">
         <f ca="1"/>
         <v>43571</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="22">
         <f ca="1"/>
         <v>43572</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="22">
         <f ca="1"/>
         <v>43573</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="22">
         <f ca="1"/>
         <v>43574</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="22">
         <f ca="1"/>
         <v>43575</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="23">
         <f ca="1"/>
         <v>43576</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -1937,37 +2187,37 @@
       <c r="F50" s="9"/>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+    <row r="51" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="22">
         <f t="array" aca="1" ref="A51:G51" ca="1">Jours+22+DATE(Calendrier4ans,OptionCalendrier4mois,1)-WEEKDAY(DATE(Calendrier4ans,OptionCalendrier4mois,1),OptionJoursemaine)</f>
         <v>43577</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="22">
         <f ca="1"/>
         <v>43578</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="22">
         <f ca="1"/>
         <v>43579</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="22">
         <f ca="1"/>
         <v>43580</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="22">
         <f ca="1"/>
         <v>43581</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="22">
         <f ca="1"/>
         <v>43582</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="23">
         <f ca="1"/>
         <v>43583</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -1976,7 +2226,7 @@
       <c r="F52" s="9"/>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <f t="array" aca="1" ref="A53:G53" ca="1">Jours+29+DATE(Calendrier4ans,OptionCalendrier4mois,1)-WEEKDAY(DATE(Calendrier4ans,OptionCalendrier4mois,1),OptionJoursemaine)</f>
         <v>43584</v>
@@ -2006,7 +2256,7 @@
         <v>43590</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -2015,7 +2265,7 @@
       <c r="F54" s="9"/>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <f t="array" aca="1" ref="A55:B55" ca="1">Jours+36+DATE(Calendrier4ans,OptionCalendrier4mois,1)-WEEKDAY(DATE(Calendrier4ans,OptionCalendrier4mois,1),OptionJoursemaine)</f>
         <v>43591</v>
@@ -2024,24 +2274,24 @@
         <f ca="1"/>
         <v>43592</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-    </row>
-    <row r="56" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+    </row>
+    <row r="56" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-    </row>
-    <row r="57" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+    </row>
+    <row r="57" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A57" s="1">
         <f ca="1">YEAR(DATE(Calendrier4ans,OptionCalendrier4mois+1,1))</f>
         <v>2019</v>
@@ -2056,7 +2306,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="str">
         <f t="shared" ref="A58:G58" ca="1" si="4">UPPER(TEXT(A59,"jjjj"))</f>
         <v>LUNDI</v>
@@ -2086,7 +2336,7 @@
         <v>DIMANCHE</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <f t="array" aca="1" ref="A59:G59" ca="1">Jours+1+DATE(Calendrier5ans,OptionCalendrier5mois,1)-WEEKDAY(DATE(Calendrier5ans,OptionCalendrier5mois,1),OptionJoursemaine)</f>
         <v>43584</v>
@@ -2116,7 +2366,7 @@
         <v>43590</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -2125,7 +2375,7 @@
       <c r="F60" s="9"/>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <f t="array" aca="1" ref="A61:G61" ca="1">Jours+8+DATE(Calendrier5ans,OptionCalendrier5mois,1)-WEEKDAY(DATE(Calendrier5ans,OptionCalendrier5mois,1),OptionJoursemaine)</f>
         <v>43591</v>
@@ -2155,7 +2405,7 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -2164,7 +2414,7 @@
       <c r="F62" s="9"/>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <f t="array" aca="1" ref="A63:G63" ca="1">Jours+15+DATE(Calendrier5ans,OptionCalendrier5mois,1)-WEEKDAY(DATE(Calendrier5ans,OptionCalendrier5mois,1),OptionJoursemaine)</f>
         <v>43598</v>
@@ -2194,7 +2444,7 @@
         <v>43604</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -2203,7 +2453,7 @@
       <c r="F64" s="9"/>
       <c r="G64" s="10"/>
     </row>
-    <row r="65" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <f t="array" aca="1" ref="A65:G65" ca="1">Jours+22+DATE(Calendrier5ans,OptionCalendrier5mois,1)-WEEKDAY(DATE(Calendrier5ans,OptionCalendrier5mois,1),OptionJoursemaine)</f>
         <v>43605</v>
@@ -2233,7 +2483,7 @@
         <v>43611</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -2242,7 +2492,7 @@
       <c r="F66" s="9"/>
       <c r="G66" s="10"/>
     </row>
-    <row r="67" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <f t="array" aca="1" ref="A67:G67" ca="1">Jours+29+DATE(Calendrier5ans,OptionCalendrier5mois,1)-WEEKDAY(DATE(Calendrier5ans,OptionCalendrier5mois,1),OptionJoursemaine)</f>
         <v>43612</v>
@@ -2272,7 +2522,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -2281,7 +2531,7 @@
       <c r="F68" s="9"/>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <f t="array" aca="1" ref="A69:B69" ca="1">Jours+36+DATE(Calendrier5ans,OptionCalendrier5mois,1)-WEEKDAY(DATE(Calendrier5ans,OptionCalendrier5mois,1),OptionJoursemaine)</f>
         <v>43619</v>
@@ -2290,24 +2540,24 @@
         <f ca="1"/>
         <v>43620</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-    </row>
-    <row r="70" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+    </row>
+    <row r="70" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-    </row>
-    <row r="71" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+    </row>
+    <row r="71" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A71" s="1">
         <f ca="1">YEAR(DATE(Calendrier5ans,OptionCalendrier5mois+1,1))</f>
         <v>2019</v>
@@ -2322,7 +2572,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="str">
         <f t="shared" ref="A72:G72" ca="1" si="5">UPPER(TEXT(A73,"jjjj"))</f>
         <v>LUNDI</v>
@@ -2352,7 +2602,7 @@
         <v>DIMANCHE</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <f t="array" aca="1" ref="A73:G73" ca="1">Jours+1+DATE(Calendrier6ans,OptionCalendrier6mois,1)-WEEKDAY(DATE(Calendrier6ans,OptionCalendrier6mois,1),OptionJoursemaine)</f>
         <v>43612</v>
@@ -2382,7 +2632,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -2391,7 +2641,7 @@
       <c r="F74" s="9"/>
       <c r="G74" s="10"/>
     </row>
-    <row r="75" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <f t="array" aca="1" ref="A75:G75" ca="1">Jours+8+DATE(Calendrier6ans,OptionCalendrier6mois,1)-WEEKDAY(DATE(Calendrier6ans,OptionCalendrier6mois,1),OptionJoursemaine)</f>
         <v>43619</v>
@@ -2421,7 +2671,7 @@
         <v>43625</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -2430,7 +2680,7 @@
       <c r="F76" s="9"/>
       <c r="G76" s="10"/>
     </row>
-    <row r="77" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <f t="array" aca="1" ref="A77:G77" ca="1">Jours+15+DATE(Calendrier6ans,OptionCalendrier6mois,1)-WEEKDAY(DATE(Calendrier6ans,OptionCalendrier6mois,1),OptionJoursemaine)</f>
         <v>43626</v>
@@ -2460,7 +2710,7 @@
         <v>43632</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -2469,7 +2719,7 @@
       <c r="F78" s="9"/>
       <c r="G78" s="10"/>
     </row>
-    <row r="79" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <f t="array" aca="1" ref="A79:G79" ca="1">Jours+22+DATE(Calendrier6ans,OptionCalendrier6mois,1)-WEEKDAY(DATE(Calendrier6ans,OptionCalendrier6mois,1),OptionJoursemaine)</f>
         <v>43633</v>
@@ -2499,7 +2749,7 @@
         <v>43639</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -2508,7 +2758,7 @@
       <c r="F80" s="9"/>
       <c r="G80" s="10"/>
     </row>
-    <row r="81" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <f t="array" aca="1" ref="A81:G81" ca="1">Jours+29+DATE(Calendrier6ans,OptionCalendrier6mois,1)-WEEKDAY(DATE(Calendrier6ans,OptionCalendrier6mois,1),OptionJoursemaine)</f>
         <v>43640</v>
@@ -2538,7 +2788,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -2547,7 +2797,7 @@
       <c r="F82" s="9"/>
       <c r="G82" s="11"/>
     </row>
-    <row r="83" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <f t="array" aca="1" ref="A83:B83" ca="1">Jours+36+DATE(Calendrier6ans,OptionCalendrier6mois,1)-WEEKDAY(DATE(Calendrier6ans,OptionCalendrier6mois,1),OptionJoursemaine)</f>
         <v>43647</v>
@@ -2556,24 +2806,24 @@
         <f ca="1"/>
         <v>43648</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-    </row>
-    <row r="84" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D83" s="38"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+    </row>
+    <row r="84" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-    </row>
-    <row r="85" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+    </row>
+    <row r="85" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A85" s="1">
         <f ca="1">YEAR(DATE(Calendrier6ans,OptionCalendrier6mois+1,1))</f>
         <v>2019</v>
@@ -2588,7 +2838,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="str">
         <f t="shared" ref="A86:G86" ca="1" si="6">UPPER(TEXT(A87,"jjjj"))</f>
         <v>LUNDI</v>
@@ -2618,7 +2868,7 @@
         <v>DIMANCHE</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <f t="array" aca="1" ref="A87:G87" ca="1">Jours+1+DATE( Calendrier7ans,OptionCalendrier7mois,1)-WEEKDAY(DATE( Calendrier7ans,OptionCalendrier7mois,1),OptionJoursemaine)</f>
         <v>43647</v>
@@ -2648,7 +2898,7 @@
         <v>43653</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -2657,7 +2907,7 @@
       <c r="F88" s="9"/>
       <c r="G88" s="10"/>
     </row>
-    <row r="89" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <f t="array" aca="1" ref="A89:G89" ca="1">Jours+8+DATE( Calendrier7ans,OptionCalendrier7mois,1)-WEEKDAY(DATE( Calendrier7ans,OptionCalendrier7mois,1),OptionJoursemaine)</f>
         <v>43654</v>
@@ -2687,7 +2937,7 @@
         <v>43660</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -2696,7 +2946,7 @@
       <c r="F90" s="9"/>
       <c r="G90" s="10"/>
     </row>
-    <row r="91" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <f t="array" aca="1" ref="A91:G91" ca="1">Jours+15+DATE( Calendrier7ans,OptionCalendrier7mois,1)-WEEKDAY(DATE( Calendrier7ans,OptionCalendrier7mois,1),OptionJoursemaine)</f>
         <v>43661</v>
@@ -2726,7 +2976,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -2735,7 +2985,7 @@
       <c r="F92" s="9"/>
       <c r="G92" s="10"/>
     </row>
-    <row r="93" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <f t="array" aca="1" ref="A93:G93" ca="1">Jours+22+DATE( Calendrier7ans,OptionCalendrier7mois,1)-WEEKDAY(DATE( Calendrier7ans,OptionCalendrier7mois,1),OptionJoursemaine)</f>
         <v>43668</v>
@@ -2765,7 +3015,7 @@
         <v>43674</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -2774,7 +3024,7 @@
       <c r="F94" s="9"/>
       <c r="G94" s="10"/>
     </row>
-    <row r="95" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <f t="array" aca="1" ref="A95:G95" ca="1">Jours+29+DATE( Calendrier7ans,OptionCalendrier7mois,1)-WEEKDAY(DATE( Calendrier7ans,OptionCalendrier7mois,1),OptionJoursemaine)</f>
         <v>43675</v>
@@ -2804,7 +3054,7 @@
         <v>43681</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -2813,7 +3063,7 @@
       <c r="F96" s="9"/>
       <c r="G96" s="11"/>
     </row>
-    <row r="97" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <f t="array" aca="1" ref="A97:B97" ca="1">Jours+36+DATE( Calendrier7ans,OptionCalendrier7mois,1)-WEEKDAY(DATE( Calendrier7ans,OptionCalendrier7mois,1),OptionJoursemaine)</f>
         <v>43682</v>
@@ -2822,24 +3072,24 @@
         <f ca="1"/>
         <v>43683</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-    </row>
-    <row r="98" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D97" s="38"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+    </row>
+    <row r="98" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-    </row>
-    <row r="99" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+    </row>
+    <row r="99" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A99" s="1">
         <f ca="1">YEAR(DATE( Calendrier7ans,OptionCalendrier7mois+1,1))</f>
         <v>2019</v>
@@ -2854,7 +3104,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="str">
         <f t="shared" ref="A100:G100" ca="1" si="7">UPPER(TEXT(A101,"jjjj"))</f>
         <v>LUNDI</v>
@@ -2884,7 +3134,7 @@
         <v>DIMANCHE</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <f t="array" aca="1" ref="A101:G101" ca="1">Jours+1+DATE( Calendrier8ans,OptionCalendrier8mois,1)-WEEKDAY(DATE( Calendrier8ans,OptionCalendrier8mois,1),OptionJoursemaine)</f>
         <v>43675</v>
@@ -2914,7 +3164,7 @@
         <v>43681</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -2923,7 +3173,7 @@
       <c r="F102" s="9"/>
       <c r="G102" s="10"/>
     </row>
-    <row r="103" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <f t="array" aca="1" ref="A103:G103" ca="1">Jours+8+DATE( Calendrier8ans,OptionCalendrier8mois,1)-WEEKDAY(DATE( Calendrier8ans,OptionCalendrier8mois,1),OptionJoursemaine)</f>
         <v>43682</v>
@@ -2953,7 +3203,7 @@
         <v>43688</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -2962,7 +3212,7 @@
       <c r="F104" s="9"/>
       <c r="G104" s="10"/>
     </row>
-    <row r="105" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <f t="array" aca="1" ref="A105:G105" ca="1">Jours+15+DATE( Calendrier8ans,OptionCalendrier8mois,1)-WEEKDAY(DATE( Calendrier8ans,OptionCalendrier8mois,1),OptionJoursemaine)</f>
         <v>43689</v>
@@ -2992,7 +3242,7 @@
         <v>43695</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -3001,7 +3251,7 @@
       <c r="F106" s="9"/>
       <c r="G106" s="10"/>
     </row>
-    <row r="107" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <f t="array" aca="1" ref="A107:G107" ca="1">Jours+22+DATE( Calendrier8ans,OptionCalendrier8mois,1)-WEEKDAY(DATE( Calendrier8ans,OptionCalendrier8mois,1),OptionJoursemaine)</f>
         <v>43696</v>
@@ -3031,7 +3281,7 @@
         <v>43702</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -3040,7 +3290,7 @@
       <c r="F108" s="9"/>
       <c r="G108" s="10"/>
     </row>
-    <row r="109" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <f t="array" aca="1" ref="A109:G109" ca="1">Jours+29+DATE( Calendrier8ans,OptionCalendrier8mois,1)-WEEKDAY(DATE( Calendrier8ans,OptionCalendrier8mois,1),OptionJoursemaine)</f>
         <v>43703</v>
@@ -3070,7 +3320,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -3079,7 +3329,7 @@
       <c r="F110" s="9"/>
       <c r="G110" s="11"/>
     </row>
-    <row r="111" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <f t="array" aca="1" ref="A111:B111" ca="1">Jours+36+DATE( Calendrier8ans,OptionCalendrier8mois,1)-WEEKDAY(DATE( Calendrier8ans,OptionCalendrier8mois,1),OptionJoursemaine)</f>
         <v>43710</v>
@@ -3088,24 +3338,24 @@
         <f ca="1"/>
         <v>43711</v>
       </c>
-      <c r="C111" s="15" t="s">
+      <c r="C111" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-    </row>
-    <row r="112" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D111" s="38"/>
+      <c r="E111" s="38"/>
+      <c r="F111" s="38"/>
+      <c r="G111" s="38"/>
+    </row>
+    <row r="112" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-    </row>
-    <row r="113" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="36"/>
+    </row>
+    <row r="113" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A113" s="1">
         <f ca="1">YEAR(DATE( Calendrier8ans,OptionCalendrier8mois+1,1))</f>
         <v>2019</v>
@@ -3120,7 +3370,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="str">
         <f t="shared" ref="A114:G114" ca="1" si="8">UPPER(TEXT(A115,"jjjj"))</f>
         <v>LUNDI</v>
@@ -3150,7 +3400,7 @@
         <v>DIMANCHE</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <f t="array" aca="1" ref="A115:G115" ca="1">Jours+1+DATE(Calendrier9ans,OptionCalendrier9mois,1)-WEEKDAY(DATE(Calendrier9ans,OptionCalendrier9mois,1),OptionJoursemaine)</f>
         <v>43703</v>
@@ -3180,7 +3430,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -3189,7 +3439,7 @@
       <c r="F116" s="9"/>
       <c r="G116" s="10"/>
     </row>
-    <row r="117" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <f t="array" aca="1" ref="A117:G117" ca="1">Jours+8+DATE(Calendrier9ans,OptionCalendrier9mois,1)-WEEKDAY(DATE(Calendrier9ans,OptionCalendrier9mois,1),OptionJoursemaine)</f>
         <v>43710</v>
@@ -3219,7 +3469,7 @@
         <v>43716</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -3228,7 +3478,7 @@
       <c r="F118" s="9"/>
       <c r="G118" s="10"/>
     </row>
-    <row r="119" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <f t="array" aca="1" ref="A119:G119" ca="1">Jours+15+DATE(Calendrier9ans,OptionCalendrier9mois,1)-WEEKDAY(DATE(Calendrier9ans,OptionCalendrier9mois,1),OptionJoursemaine)</f>
         <v>43717</v>
@@ -3258,7 +3508,7 @@
         <v>43723</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -3267,7 +3517,7 @@
       <c r="F120" s="9"/>
       <c r="G120" s="10"/>
     </row>
-    <row r="121" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <f t="array" aca="1" ref="A121:G121" ca="1">Jours+22+DATE(Calendrier9ans,OptionCalendrier9mois,1)-WEEKDAY(DATE(Calendrier9ans,OptionCalendrier9mois,1),OptionJoursemaine)</f>
         <v>43724</v>
@@ -3297,7 +3547,7 @@
         <v>43730</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -3306,7 +3556,7 @@
       <c r="F122" s="9"/>
       <c r="G122" s="10"/>
     </row>
-    <row r="123" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <f t="array" aca="1" ref="A123:G123" ca="1">Jours+29+DATE(Calendrier9ans,OptionCalendrier9mois,1)-WEEKDAY(DATE(Calendrier9ans,OptionCalendrier9mois,1),OptionJoursemaine)</f>
         <v>43731</v>
@@ -3336,7 +3586,7 @@
         <v>43737</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -3345,7 +3595,7 @@
       <c r="F124" s="9"/>
       <c r="G124" s="11"/>
     </row>
-    <row r="125" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <f t="array" aca="1" ref="A125:B125" ca="1">Jours+36+DATE(Calendrier9ans,OptionCalendrier9mois,1)-WEEKDAY(DATE(Calendrier9ans,OptionCalendrier9mois,1),OptionJoursemaine)</f>
         <v>43738</v>
@@ -3354,24 +3604,24 @@
         <f ca="1"/>
         <v>43739</v>
       </c>
-      <c r="C125" s="15" t="s">
+      <c r="C125" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
-    </row>
-    <row r="126" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D125" s="38"/>
+      <c r="E125" s="38"/>
+      <c r="F125" s="38"/>
+      <c r="G125" s="38"/>
+    </row>
+    <row r="126" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
-    </row>
-    <row r="127" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C126" s="36"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="36"/>
+      <c r="F126" s="36"/>
+      <c r="G126" s="36"/>
+    </row>
+    <row r="127" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A127" s="1">
         <f ca="1">YEAR(DATE(Calendrier9ans,OptionCalendrier9mois+1,1))</f>
         <v>2019</v>
@@ -3386,7 +3636,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="str">
         <f t="shared" ref="A128:G128" ca="1" si="9">UPPER(TEXT(A129,"jjjj"))</f>
         <v>LUNDI</v>
@@ -3416,7 +3666,7 @@
         <v>DIMANCHE</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <f t="array" aca="1" ref="A129:G129" ca="1">Jours+1+DATE(Calendrier10ans,OptionCalendrier10mois,1)-WEEKDAY(DATE(Calendrier10ans,OptionCalendrier10mois,1),OptionJoursemaine)</f>
         <v>43738</v>
@@ -3446,7 +3696,7 @@
         <v>43744</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -3455,7 +3705,7 @@
       <c r="F130" s="9"/>
       <c r="G130" s="10"/>
     </row>
-    <row r="131" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <f t="array" aca="1" ref="A131:G131" ca="1">Jours+8+DATE(Calendrier10ans,OptionCalendrier10mois,1)-WEEKDAY(DATE(Calendrier10ans,OptionCalendrier10mois,1),OptionJoursemaine)</f>
         <v>43745</v>
@@ -3485,7 +3735,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -3494,7 +3744,7 @@
       <c r="F132" s="9"/>
       <c r="G132" s="10"/>
     </row>
-    <row r="133" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <f t="array" aca="1" ref="A133:G133" ca="1">Jours+15+DATE(Calendrier10ans,OptionCalendrier10mois,1)-WEEKDAY(DATE(Calendrier10ans,OptionCalendrier10mois,1),OptionJoursemaine)</f>
         <v>43752</v>
@@ -3524,7 +3774,7 @@
         <v>43758</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -3533,7 +3783,7 @@
       <c r="F134" s="9"/>
       <c r="G134" s="10"/>
     </row>
-    <row r="135" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <f t="array" aca="1" ref="A135:G135" ca="1">Jours+22+DATE(Calendrier10ans,OptionCalendrier10mois,1)-WEEKDAY(DATE(Calendrier10ans,OptionCalendrier10mois,1),OptionJoursemaine)</f>
         <v>43759</v>
@@ -3563,7 +3813,7 @@
         <v>43765</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -3572,7 +3822,7 @@
       <c r="F136" s="9"/>
       <c r="G136" s="10"/>
     </row>
-    <row r="137" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <f t="array" aca="1" ref="A137:G137" ca="1">Jours+29+DATE(Calendrier10ans,OptionCalendrier10mois,1)-WEEKDAY(DATE(Calendrier10ans,OptionCalendrier10mois,1),OptionJoursemaine)</f>
         <v>43766</v>
@@ -3602,7 +3852,7 @@
         <v>43772</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -3611,7 +3861,7 @@
       <c r="F138" s="9"/>
       <c r="G138" s="11"/>
     </row>
-    <row r="139" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <f t="array" aca="1" ref="A139:B139" ca="1">Jours+36+DATE(Calendrier10ans,OptionCalendrier10mois,1)-WEEKDAY(DATE(Calendrier10ans,OptionCalendrier10mois,1),OptionJoursemaine)</f>
         <v>43773</v>
@@ -3620,24 +3870,24 @@
         <f ca="1"/>
         <v>43774</v>
       </c>
-      <c r="C139" s="15" t="s">
+      <c r="C139" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D139" s="16"/>
-      <c r="E139" s="16"/>
-      <c r="F139" s="16"/>
-      <c r="G139" s="16"/>
-    </row>
-    <row r="140" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D139" s="38"/>
+      <c r="E139" s="38"/>
+      <c r="F139" s="38"/>
+      <c r="G139" s="38"/>
+    </row>
+    <row r="140" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
-    </row>
-    <row r="141" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C140" s="36"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="36"/>
+      <c r="F140" s="36"/>
+      <c r="G140" s="36"/>
+    </row>
+    <row r="141" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A141" s="1">
         <f ca="1">YEAR(DATE(Calendrier10ans,OptionCalendrier10mois+1,1))</f>
         <v>2019</v>
@@ -3652,7 +3902,7 @@
       <c r="F141" s="8"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="str">
         <f t="shared" ref="A142:G142" ca="1" si="10">UPPER(TEXT(A143,"jjjj"))</f>
         <v>LUNDI</v>
@@ -3682,7 +3932,7 @@
         <v>DIMANCHE</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <f t="array" aca="1" ref="A143:G143" ca="1">Jours+1+DATE( Calendrier11ans,OptionCalendrier11mois,1)-WEEKDAY(DATE( Calendrier11ans,OptionCalendrier11mois,1),OptionJoursemaine)</f>
         <v>43766</v>
@@ -3712,7 +3962,7 @@
         <v>43772</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -3721,7 +3971,7 @@
       <c r="F144" s="9"/>
       <c r="G144" s="10"/>
     </row>
-    <row r="145" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <f t="array" aca="1" ref="A145:G145" ca="1">Jours+8+DATE( Calendrier11ans,OptionCalendrier11mois,1)-WEEKDAY(DATE( Calendrier11ans,OptionCalendrier11mois,1),OptionJoursemaine)</f>
         <v>43773</v>
@@ -3751,7 +4001,7 @@
         <v>43779</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -3760,7 +4010,7 @@
       <c r="F146" s="9"/>
       <c r="G146" s="10"/>
     </row>
-    <row r="147" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <f t="array" aca="1" ref="A147:G147" ca="1">Jours+15+DATE( Calendrier11ans,OptionCalendrier11mois,1)-WEEKDAY(DATE( Calendrier11ans,OptionCalendrier11mois,1),OptionJoursemaine)</f>
         <v>43780</v>
@@ -3790,7 +4040,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -3799,7 +4049,7 @@
       <c r="F148" s="9"/>
       <c r="G148" s="10"/>
     </row>
-    <row r="149" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <f t="array" aca="1" ref="A149:G149" ca="1">Jours+22+DATE( Calendrier11ans,OptionCalendrier11mois,1)-WEEKDAY(DATE( Calendrier11ans,OptionCalendrier11mois,1),OptionJoursemaine)</f>
         <v>43787</v>
@@ -3829,7 +4079,7 @@
         <v>43793</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -3838,7 +4088,7 @@
       <c r="F150" s="9"/>
       <c r="G150" s="10"/>
     </row>
-    <row r="151" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <f t="array" aca="1" ref="A151:G151" ca="1">Jours+29+DATE( Calendrier11ans,OptionCalendrier11mois,1)-WEEKDAY(DATE( Calendrier11ans,OptionCalendrier11mois,1),OptionJoursemaine)</f>
         <v>43794</v>
@@ -3868,7 +4118,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -3877,7 +4127,7 @@
       <c r="F152" s="9"/>
       <c r="G152" s="11"/>
     </row>
-    <row r="153" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <f t="array" aca="1" ref="A153:B153" ca="1">Jours+36+DATE( Calendrier11ans,OptionCalendrier11mois,1)-WEEKDAY(DATE( Calendrier11ans,OptionCalendrier11mois,1),OptionJoursemaine)</f>
         <v>43801</v>
@@ -3886,24 +4136,24 @@
         <f ca="1"/>
         <v>43802</v>
       </c>
-      <c r="C153" s="15" t="s">
+      <c r="C153" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D153" s="16"/>
-      <c r="E153" s="16"/>
-      <c r="F153" s="16"/>
-      <c r="G153" s="16"/>
-    </row>
-    <row r="154" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D153" s="38"/>
+      <c r="E153" s="38"/>
+      <c r="F153" s="38"/>
+      <c r="G153" s="38"/>
+    </row>
+    <row r="154" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
-      <c r="C154" s="14"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
-    </row>
-    <row r="155" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C154" s="36"/>
+      <c r="D154" s="36"/>
+      <c r="E154" s="36"/>
+      <c r="F154" s="36"/>
+      <c r="G154" s="36"/>
+    </row>
+    <row r="155" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A155" s="1">
         <f ca="1">YEAR(DATE( Calendrier11ans,OptionCalendrier11mois+1,1))</f>
         <v>2019</v>
@@ -3918,7 +4168,7 @@
       <c r="F155" s="8"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="6" t="str">
         <f t="shared" ref="A156:G156" ca="1" si="11">UPPER(TEXT(A157,"jjjj"))</f>
         <v>LUNDI</v>
@@ -3948,7 +4198,7 @@
         <v>DIMANCHE</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <f t="array" aca="1" ref="A157:G157" ca="1">Jours+1+DATE( Calendrier12ans,OptionCalendrier12mois,1)-WEEKDAY(DATE( Calendrier12ans,OptionCalendrier12mois,1),OptionJoursemaine)</f>
         <v>43794</v>
@@ -3978,7 +4228,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -3987,7 +4237,7 @@
       <c r="F158" s="9"/>
       <c r="G158" s="10"/>
     </row>
-    <row r="159" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <f t="array" aca="1" ref="A159:G159" ca="1">Jours+8+DATE( Calendrier12ans,OptionCalendrier12mois,1)-WEEKDAY(DATE( Calendrier12ans,OptionCalendrier12mois,1),OptionJoursemaine)</f>
         <v>43801</v>
@@ -4017,7 +4267,7 @@
         <v>43807</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -4026,7 +4276,7 @@
       <c r="F160" s="9"/>
       <c r="G160" s="10"/>
     </row>
-    <row r="161" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <f t="array" aca="1" ref="A161:G161" ca="1">Jours+15+DATE( Calendrier12ans,OptionCalendrier12mois,1)-WEEKDAY(DATE( Calendrier12ans,OptionCalendrier12mois,1),OptionJoursemaine)</f>
         <v>43808</v>
@@ -4056,7 +4306,7 @@
         <v>43814</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -4065,7 +4315,7 @@
       <c r="F162" s="9"/>
       <c r="G162" s="10"/>
     </row>
-    <row r="163" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <f t="array" aca="1" ref="A163:G163" ca="1">Jours+22+DATE( Calendrier12ans,OptionCalendrier12mois,1)-WEEKDAY(DATE( Calendrier12ans,OptionCalendrier12mois,1),OptionJoursemaine)</f>
         <v>43815</v>
@@ -4095,7 +4345,7 @@
         <v>43821</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -4104,7 +4354,7 @@
       <c r="F164" s="9"/>
       <c r="G164" s="10"/>
     </row>
-    <row r="165" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <f t="array" aca="1" ref="A165:G165" ca="1">Jours+29+DATE( Calendrier12ans,OptionCalendrier12mois,1)-WEEKDAY(DATE( Calendrier12ans,OptionCalendrier12mois,1),OptionJoursemaine)</f>
         <v>43822</v>
@@ -4134,7 +4384,7 @@
         <v>43828</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
@@ -4143,7 +4393,7 @@
       <c r="F166" s="9"/>
       <c r="G166" s="11"/>
     </row>
-    <row r="167" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <f t="array" aca="1" ref="A167:B167" ca="1">Jours+36+DATE( Calendrier12ans,OptionCalendrier12mois,1)-WEEKDAY(DATE( Calendrier12ans,OptionCalendrier12mois,1),OptionJoursemaine)</f>
         <v>43829</v>
@@ -4152,22 +4402,22 @@
         <f ca="1"/>
         <v>43830</v>
       </c>
-      <c r="C167" s="15" t="s">
+      <c r="C167" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D167" s="16"/>
-      <c r="E167" s="16"/>
-      <c r="F167" s="16"/>
-      <c r="G167" s="16"/>
-    </row>
-    <row r="168" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D167" s="38"/>
+      <c r="E167" s="38"/>
+      <c r="F167" s="38"/>
+      <c r="G167" s="38"/>
+    </row>
+    <row r="168" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
+      <c r="C168" s="36"/>
+      <c r="D168" s="36"/>
+      <c r="E168" s="36"/>
+      <c r="F168" s="36"/>
+      <c r="G168" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -4259,27 +4509,27 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seuls les jours de la liste déroulante peuvent être utilisés pour les titres des jours de la semaine. Pour sélectionner un autre jour de la semaine, sélectionnez ANNULER, puis ALT + flèche bas pour faire votre choix dans la liste déroulante" prompt="Sélectionnez le premier jour de la semaine dans la liste déroulante. Appuyez sur ALT + Bas pour ouvrir la liste déroulante, puis appuyez sur ENTRÉE pour sélectionner un jour. Le calendrier se met automatiquement à jour." sqref="A2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seuls les jours de la liste déroulante peuvent être utilisés pour les titres des jours de la semaine. Pour sélectionner un autre jour de la semaine, sélectionnez ANNULER, puis ALT + flèche bas pour faire votre choix dans la liste déroulante" prompt="Sélectionnez le premier jour de la semaine dans la liste déroulante. Appuyez sur ALT + Bas pour ouvrir la liste déroulante, puis appuyez sur ENTRÉE pour sélectionner un jour. Le calendrier se met automatiquement à jour." sqref="A2">
       <formula1>"DIMANCHE,LUNDI,MARDI,MERCREDI,JEUDI,VENDREDI,SAMEDI"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Sélectionnez un mois dans la liste. Sélectionnez ANNULER, puis ALT + flèche bas pour faire votre choix dans la liste déroulante" prompt="Sélectionnez le mois de début du calendrier dans la liste déroulante. Appuyez sur ALT + Bas pour ouvrir la liste déroulante, puis appuyez sur ENTRÉE pour sélectionner l’un des éléments" sqref="B1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Sélectionnez un mois dans la liste. Sélectionnez ANNULER, puis ALT + flèche bas pour faire votre choix dans la liste déroulante" prompt="Sélectionnez le mois de début du calendrier dans la liste déroulante. Appuyez sur ALT + Bas pour ouvrir la liste déroulante, puis appuyez sur ENTRÉE pour sélectionner l’un des éléments" sqref="B1">
       <formula1>"janvier,février,mars,avril,mai,juin,juillet,août,septembre,octobre,novembre,décembre"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez une année pour ce calendrier" sqref="A1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Jour de la semaine défini automatiquement Pour modifier les jours de la semaine, sélectionnez un nouveau jour de début de semaine dans la cellule B2." sqref="B2:G2 A16" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Date" sqref="A3" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Ajouter des notes mensuelles ici" sqref="C14" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Titre des notes mensuelles" sqref="C13" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Ajoutez des notes quotidiennes ici" sqref="A4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Année civile définie automatiquement par la saisie de l’année dans la cellule B1" sqref="A15" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Décalage mensuel du calendrier pour le mois sélectionné dans la cellule C1" sqref="B15" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez une année pour ce calendrier" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Jour de la semaine défini automatiquement Pour modifier les jours de la semaine, sélectionnez un nouveau jour de début de semaine dans la cellule B2." sqref="B2:G2 A16"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Date" sqref="A3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Ajouter des notes mensuelles ici" sqref="C14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Titre des notes mensuelles" sqref="C13"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Ajoutez des notes quotidiennes ici" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Année civile définie automatiquement par la saisie de l’année dans la cellule B1" sqref="A15"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Décalage mensuel du calendrier pour le mois sélectionné dans la cellule C1" sqref="B15"/>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"-,Gras italique"&amp;28Calendrier EPSA</oddHeader>
-    <oddFooter>&amp;Lpar NGO&amp;CVersion 1.0 du 04/01/2019 &amp;RSTUF'2019 Optimus</oddFooter>
+    <oddFooter>&amp;Lpar NGO&amp;CVersion 1.2 du &amp;D&amp;RSTUF'2019 Optimus</oddFooter>
   </headerFooter>
   <rowBreaks count="11" manualBreakCount="11">
     <brk id="14" max="7" man="1"/>
@@ -4287,7 +4537,7 @@
     <brk id="42" max="7" man="1"/>
     <brk id="56" max="7" man="1"/>
     <brk id="70" max="7" man="1"/>
-    <brk id="84" max="7" man="1"/>
+    <brk id="84" max="16383" man="1"/>
     <brk id="98" max="7" man="1"/>
     <brk id="112" max="7" man="1"/>
     <brk id="126" max="7" man="1"/>
